--- a/Code/Results/Cases/Case_6_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011209734973667</v>
+        <v>1.016095082511975</v>
       </c>
       <c r="D2">
-        <v>1.027616238449277</v>
+        <v>1.031977735181159</v>
       </c>
       <c r="E2">
-        <v>1.022100232058528</v>
+        <v>1.026943744466703</v>
       </c>
       <c r="F2">
-        <v>1.025103876036832</v>
+        <v>1.030043484281751</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050317813057975</v>
+        <v>1.052684465217017</v>
       </c>
       <c r="J2">
-        <v>1.033060257229712</v>
+        <v>1.037804823024337</v>
       </c>
       <c r="K2">
-        <v>1.038703788650497</v>
+        <v>1.043008844862195</v>
       </c>
       <c r="L2">
-        <v>1.033260027783061</v>
+        <v>1.038040050585102</v>
       </c>
       <c r="M2">
-        <v>1.03622421092692</v>
+        <v>1.041099550585775</v>
       </c>
       <c r="N2">
-        <v>1.034527321288646</v>
+        <v>1.039278624910908</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018335157336531</v>
+        <v>1.020481129036426</v>
       </c>
       <c r="D3">
-        <v>1.033115044103548</v>
+        <v>1.035289722631473</v>
       </c>
       <c r="E3">
-        <v>1.028395030658595</v>
+        <v>1.030747338011893</v>
       </c>
       <c r="F3">
-        <v>1.032153332077006</v>
+        <v>1.034493864105659</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052834852815739</v>
+        <v>1.054208147013708</v>
       </c>
       <c r="J3">
-        <v>1.038338167634487</v>
+        <v>1.040428613396562</v>
       </c>
       <c r="K3">
-        <v>1.043341044187258</v>
+        <v>1.045490130450988</v>
       </c>
       <c r="L3">
-        <v>1.03867703894336</v>
+        <v>1.041001354107725</v>
       </c>
       <c r="M3">
-        <v>1.042390692470349</v>
+        <v>1.044703622372352</v>
       </c>
       <c r="N3">
-        <v>1.039812726931581</v>
+        <v>1.041906141366415</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022811535635818</v>
+        <v>1.023261844440104</v>
       </c>
       <c r="D4">
-        <v>1.0365705942473</v>
+        <v>1.037391097130492</v>
       </c>
       <c r="E4">
-        <v>1.03235548555266</v>
+        <v>1.033164556860213</v>
       </c>
       <c r="F4">
-        <v>1.036590551286183</v>
+        <v>1.037322931563353</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054401182076455</v>
+        <v>1.055163426265635</v>
       </c>
       <c r="J4">
-        <v>1.041649187796178</v>
+        <v>1.042088663502089</v>
       </c>
       <c r="K4">
-        <v>1.04624680464814</v>
+        <v>1.047058254489739</v>
       </c>
       <c r="L4">
-        <v>1.042078482592067</v>
+        <v>1.042878536990514</v>
       </c>
       <c r="M4">
-        <v>1.04626654128145</v>
+        <v>1.046990840358935</v>
       </c>
       <c r="N4">
-        <v>1.04312844912168</v>
+        <v>1.043568548933502</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024662992248951</v>
+        <v>1.024417596039774</v>
       </c>
       <c r="D5">
-        <v>1.037999983652361</v>
+        <v>1.038264831937245</v>
       </c>
       <c r="E5">
-        <v>1.033994896637791</v>
+        <v>1.034170581493753</v>
       </c>
       <c r="F5">
-        <v>1.038427814277399</v>
+        <v>1.03850057698504</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055045377053109</v>
+        <v>1.055557859316842</v>
       </c>
       <c r="J5">
-        <v>1.043017458321718</v>
+        <v>1.042777782929031</v>
       </c>
       <c r="K5">
-        <v>1.047446773779631</v>
+        <v>1.047708780231927</v>
       </c>
       <c r="L5">
-        <v>1.043484879153711</v>
+        <v>1.043658660752792</v>
       </c>
       <c r="M5">
-        <v>1.047870014647837</v>
+        <v>1.047941997219852</v>
       </c>
       <c r="N5">
-        <v>1.04449866274831</v>
+        <v>1.044258646989074</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024972124151043</v>
+        <v>1.024610887379223</v>
       </c>
       <c r="D6">
-        <v>1.038238650546503</v>
+        <v>1.038410976519655</v>
       </c>
       <c r="E6">
-        <v>1.03426870099655</v>
+        <v>1.03433891071371</v>
       </c>
       <c r="F6">
-        <v>1.038734692663227</v>
+        <v>1.038697635058556</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055152719928073</v>
+        <v>1.055623670912358</v>
       </c>
       <c r="J6">
-        <v>1.043245842698777</v>
+        <v>1.042892982533452</v>
       </c>
       <c r="K6">
-        <v>1.04764701675124</v>
+        <v>1.047817502387843</v>
       </c>
       <c r="L6">
-        <v>1.043719671977159</v>
+        <v>1.043789124734166</v>
       </c>
       <c r="M6">
-        <v>1.048137763461416</v>
+        <v>1.04810110124436</v>
       </c>
       <c r="N6">
-        <v>1.04472737145738</v>
+        <v>1.044374010190147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022836392211663</v>
+        <v>1.023277339152483</v>
       </c>
       <c r="D7">
-        <v>1.036589783915673</v>
+        <v>1.037402809676789</v>
       </c>
       <c r="E7">
-        <v>1.032377490102675</v>
+        <v>1.03317803893586</v>
       </c>
       <c r="F7">
-        <v>1.036615209446452</v>
+        <v>1.037338712721328</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054409845181306</v>
+        <v>1.055168724638524</v>
       </c>
       <c r="J7">
-        <v>1.041667562170692</v>
+        <v>1.042097905651579</v>
       </c>
       <c r="K7">
-        <v>1.046262922232056</v>
+        <v>1.047066980764598</v>
       </c>
       <c r="L7">
-        <v>1.04209736595254</v>
+        <v>1.042888996207361</v>
       </c>
       <c r="M7">
-        <v>1.046288067071286</v>
+        <v>1.0470035901362</v>
       </c>
       <c r="N7">
-        <v>1.043146849589914</v>
+        <v>1.043577804207904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013646686071239</v>
+        <v>1.017589531636541</v>
       </c>
       <c r="D8">
-        <v>1.029496587553997</v>
+        <v>1.033105857323459</v>
       </c>
       <c r="E8">
-        <v>1.024251813618641</v>
+        <v>1.02823850508491</v>
       </c>
       <c r="F8">
-        <v>1.02751300546324</v>
+        <v>1.031558255990134</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051181773371523</v>
+        <v>1.053205850933141</v>
       </c>
       <c r="J8">
-        <v>1.034866299373107</v>
+        <v>1.038699518071253</v>
       </c>
       <c r="K8">
-        <v>1.040291299107361</v>
+        <v>1.043855311073531</v>
       </c>
       <c r="L8">
-        <v>1.035113001221984</v>
+        <v>1.039049085326788</v>
       </c>
       <c r="M8">
-        <v>1.03833275876641</v>
+        <v>1.042327067258029</v>
       </c>
       <c r="N8">
-        <v>1.036335928219041</v>
+        <v>1.040174590527414</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.996339386849982</v>
+        <v>1.007105394751541</v>
       </c>
       <c r="D9">
-        <v>1.016151402111892</v>
+        <v>1.025200428170798</v>
       </c>
       <c r="E9">
-        <v>1.008999995295641</v>
+        <v>1.019181140154798</v>
       </c>
       <c r="F9">
-        <v>1.010442752173027</v>
+        <v>1.020964451024733</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044984123358095</v>
+        <v>1.049504226810926</v>
       </c>
       <c r="J9">
-        <v>1.022022076343551</v>
+        <v>1.032409714327756</v>
       </c>
       <c r="K9">
-        <v>1.028987758575796</v>
+        <v>1.03789746164521</v>
       </c>
       <c r="L9">
-        <v>1.021948722177196</v>
+        <v>1.031970497552157</v>
       </c>
       <c r="M9">
-        <v>1.023368644969665</v>
+        <v>1.033726311125797</v>
       </c>
       <c r="N9">
-        <v>1.023473464919529</v>
+        <v>1.03387585454115</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9839177574062594</v>
+        <v>0.9997725948130446</v>
       </c>
       <c r="D10">
-        <v>1.006590772154569</v>
+        <v>1.019684677187042</v>
       </c>
       <c r="E10">
-        <v>0.9980946880144145</v>
+        <v>1.012880782322893</v>
       </c>
       <c r="F10">
-        <v>0.9982449811650609</v>
+        <v>1.013597753636628</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0404601487071</v>
+        <v>1.046861209891044</v>
       </c>
       <c r="J10">
-        <v>1.012784302855944</v>
+        <v>1.027995238066396</v>
       </c>
       <c r="K10">
-        <v>1.020842039153388</v>
+        <v>1.033707387336584</v>
       </c>
       <c r="L10">
-        <v>1.012498428881948</v>
+        <v>1.027021300692623</v>
       </c>
       <c r="M10">
-        <v>1.01264599548393</v>
+        <v>1.027725761244482</v>
       </c>
       <c r="N10">
-        <v>1.014222572733982</v>
+        <v>1.029455109217152</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9782943635274997</v>
+        <v>0.9965079647370779</v>
       </c>
       <c r="D11">
-        <v>1.002268745242089</v>
+        <v>1.017232983096039</v>
       </c>
       <c r="E11">
-        <v>0.9931690410279267</v>
+        <v>1.010084564010162</v>
       </c>
       <c r="F11">
-        <v>0.9927368596815247</v>
+        <v>1.01032853896277</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03839523793856</v>
+        <v>1.045672274646167</v>
       </c>
       <c r="J11">
-        <v>1.008598855896867</v>
+        <v>1.026026741511728</v>
       </c>
       <c r="K11">
-        <v>1.017148002804708</v>
+        <v>1.031837067212271</v>
       </c>
       <c r="L11">
-        <v>1.008220939315674</v>
+        <v>1.024818773549994</v>
       </c>
       <c r="M11">
-        <v>1.007797060458874</v>
+        <v>1.025058267798946</v>
       </c>
       <c r="N11">
-        <v>1.010031181960147</v>
+        <v>1.027483817171587</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9761653544019367</v>
+        <v>0.9952811566893534</v>
       </c>
       <c r="D12">
-        <v>1.000633553316351</v>
+        <v>1.016312332281137</v>
       </c>
       <c r="E12">
-        <v>0.9913060424327117</v>
+        <v>1.00903514655645</v>
       </c>
       <c r="F12">
-        <v>0.9906536981433294</v>
+        <v>1.009101618889874</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037611041765361</v>
+        <v>1.04522369943586</v>
       </c>
       <c r="J12">
-        <v>1.007013851311889</v>
+        <v>1.025286577865026</v>
       </c>
       <c r="K12">
-        <v>1.015748625502083</v>
+        <v>1.031133547361918</v>
       </c>
       <c r="L12">
-        <v>1.006601722155524</v>
+        <v>1.023991270687436</v>
       </c>
       <c r="M12">
-        <v>1.005962176169521</v>
+        <v>1.024056499219903</v>
       </c>
       <c r="N12">
-        <v>1.008443926486855</v>
+        <v>1.026742602407608</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9766239150779287</v>
+        <v>0.9955449651914168</v>
       </c>
       <c r="D13">
-        <v>1.000985698271062</v>
+        <v>1.016510274569771</v>
       </c>
       <c r="E13">
-        <v>0.9917072221332378</v>
+        <v>1.009260746983074</v>
       </c>
       <c r="F13">
-        <v>0.9911022823619385</v>
+        <v>1.009365378162237</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037780054858742</v>
+        <v>1.045320239415287</v>
       </c>
       <c r="J13">
-        <v>1.007355256650869</v>
+        <v>1.025445758618688</v>
       </c>
       <c r="K13">
-        <v>1.01605006766327</v>
+        <v>1.031284859477356</v>
       </c>
       <c r="L13">
-        <v>1.006950467643718</v>
+        <v>1.024169205135788</v>
       </c>
       <c r="M13">
-        <v>1.006357342853164</v>
+        <v>1.024271886299643</v>
       </c>
       <c r="N13">
-        <v>1.008785816660576</v>
+        <v>1.026902009216199</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9781192212647267</v>
+        <v>0.9964068500854638</v>
       </c>
       <c r="D14">
-        <v>1.0021342027604</v>
+        <v>1.017157088259955</v>
       </c>
       <c r="E14">
-        <v>0.9930157437291435</v>
+        <v>1.009998041960527</v>
       </c>
       <c r="F14">
-        <v>0.9925654436403784</v>
+        <v>1.010227382143293</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038330774764534</v>
+        <v>1.045635338702751</v>
       </c>
       <c r="J14">
-        <v>1.008468473416123</v>
+        <v>1.025965744955713</v>
       </c>
       <c r="K14">
-        <v>1.017032899250345</v>
+        <v>1.031779095887545</v>
       </c>
       <c r="L14">
-        <v>1.0080877294269</v>
+        <v>1.024750566079339</v>
       </c>
       <c r="M14">
-        <v>1.007646094992008</v>
+        <v>1.024975687798568</v>
       </c>
       <c r="N14">
-        <v>1.009900614321325</v>
+        <v>1.027422733993466</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9790350867369376</v>
+        <v>0.9969359840773231</v>
       </c>
       <c r="D15">
-        <v>1.002837807965114</v>
+        <v>1.017554274265437</v>
       </c>
       <c r="E15">
-        <v>0.9938174519505701</v>
+        <v>1.010450868759973</v>
       </c>
       <c r="F15">
-        <v>0.9934619140407666</v>
+        <v>1.010756802657071</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03866777202963</v>
+        <v>1.045828552297956</v>
       </c>
       <c r="J15">
-        <v>1.009150262525424</v>
+        <v>1.026284923419425</v>
       </c>
       <c r="K15">
-        <v>1.017634773882803</v>
+        <v>1.032082433168122</v>
       </c>
       <c r="L15">
-        <v>1.00878432964788</v>
+        <v>1.025107504064682</v>
       </c>
       <c r="M15">
-        <v>1.008435571514543</v>
+        <v>1.025407856225234</v>
       </c>
       <c r="N15">
-        <v>1.010583371649363</v>
+        <v>1.027742365727207</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9842855216797174</v>
+        <v>0.9999873106745337</v>
       </c>
       <c r="D16">
-        <v>1.0068735718272</v>
+        <v>1.019846014460152</v>
       </c>
       <c r="E16">
-        <v>0.9984170660533753</v>
+        <v>1.013064877346013</v>
       </c>
       <c r="F16">
-        <v>0.9986055041417182</v>
+        <v>1.013812992628402</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040594851829981</v>
+        <v>1.04693915581009</v>
       </c>
       <c r="J16">
-        <v>1.013057965388272</v>
+        <v>1.028124645179417</v>
       </c>
       <c r="K16">
-        <v>1.021083504590556</v>
+        <v>1.03383030216299</v>
       </c>
       <c r="L16">
-        <v>1.012778197821398</v>
+        <v>1.027166184156526</v>
       </c>
       <c r="M16">
-        <v>1.012963230441233</v>
+        <v>1.027901290105323</v>
       </c>
       <c r="N16">
-        <v>1.014496623898496</v>
+        <v>1.029584700103117</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9875111481041313</v>
+        <v>1.001876867329941</v>
       </c>
       <c r="D17">
-        <v>1.009354698381324</v>
+        <v>1.02126628533722</v>
       </c>
       <c r="E17">
-        <v>1.001245904053393</v>
+        <v>1.014685965576832</v>
       </c>
       <c r="F17">
-        <v>1.001769201455559</v>
+        <v>1.015708352788375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041774430194977</v>
+        <v>1.047623713262965</v>
       </c>
       <c r="J17">
-        <v>1.015457861101859</v>
+        <v>1.029263110869947</v>
       </c>
       <c r="K17">
-        <v>1.023200670129395</v>
+        <v>1.034911438327145</v>
       </c>
       <c r="L17">
-        <v>1.015232123267346</v>
+        <v>1.0284413049237</v>
       </c>
       <c r="M17">
-        <v>1.015746281109904</v>
+        <v>1.02944645161342</v>
       </c>
       <c r="N17">
-        <v>1.016899927739268</v>
+        <v>1.030724782545511</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9893692428254229</v>
+        <v>1.002970432612679</v>
       </c>
       <c r="D18">
-        <v>1.01078449566287</v>
+        <v>1.022088627267861</v>
       </c>
       <c r="E18">
-        <v>1.002876482575371</v>
+        <v>1.015624984671155</v>
       </c>
       <c r="F18">
-        <v>1.003592922945312</v>
+        <v>1.016806271639106</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04245232468076</v>
+        <v>1.048018730255164</v>
       </c>
       <c r="J18">
-        <v>1.016839971865374</v>
+        <v>1.029921688372262</v>
       </c>
       <c r="K18">
-        <v>1.024419635476073</v>
+        <v>1.035536672041707</v>
       </c>
       <c r="L18">
-        <v>1.016645748222679</v>
+        <v>1.029179352970881</v>
       </c>
       <c r="M18">
-        <v>1.017349924726963</v>
+        <v>1.030341078469686</v>
       </c>
       <c r="N18">
-        <v>1.018284001258597</v>
+        <v>1.03138429530342</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9899989410743931</v>
+        <v>1.003341876124025</v>
       </c>
       <c r="D19">
-        <v>1.011269136689711</v>
+        <v>1.022368007345942</v>
       </c>
       <c r="E19">
-        <v>1.003429250888614</v>
+        <v>1.015944073497965</v>
       </c>
       <c r="F19">
-        <v>1.004211189767771</v>
+        <v>1.017179361718056</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042681786401377</v>
+        <v>1.048152703758199</v>
       </c>
       <c r="J19">
-        <v>1.017308302807748</v>
+        <v>1.030145330513956</v>
       </c>
       <c r="K19">
-        <v>1.024832628889171</v>
+        <v>1.035748960287692</v>
       </c>
       <c r="L19">
-        <v>1.017124825216954</v>
+        <v>1.029430053173884</v>
       </c>
       <c r="M19">
-        <v>1.017893470886877</v>
+        <v>1.030645012822652</v>
       </c>
       <c r="N19">
-        <v>1.018752997284628</v>
+        <v>1.031608255042607</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.987167508600466</v>
+        <v>1.001675028527983</v>
       </c>
       <c r="D20">
-        <v>1.009090313491789</v>
+        <v>1.021114535669235</v>
       </c>
       <c r="E20">
-        <v>1.000944425919873</v>
+        <v>1.014512717828637</v>
       </c>
       <c r="F20">
-        <v>1.001432023598037</v>
+        <v>1.015505790632889</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041648929447746</v>
+        <v>1.047550710659891</v>
       </c>
       <c r="J20">
-        <v>1.015202223563908</v>
+        <v>1.029141532987333</v>
       </c>
       <c r="K20">
-        <v>1.02297518205721</v>
+        <v>1.034796001300696</v>
       </c>
       <c r="L20">
-        <v>1.014970689039894</v>
+        <v>1.028305090115355</v>
       </c>
       <c r="M20">
-        <v>1.015449739248071</v>
+        <v>1.029281360997991</v>
       </c>
       <c r="N20">
-        <v>1.016643927166691</v>
+        <v>1.030603032008359</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.977680031460242</v>
+        <v>0.9961534440446994</v>
       </c>
       <c r="D21">
-        <v>1.001796840409915</v>
+        <v>1.016966897218869</v>
       </c>
       <c r="E21">
-        <v>0.9926313629279887</v>
+        <v>1.009781229019861</v>
       </c>
       <c r="F21">
-        <v>0.9921356336440026</v>
+        <v>1.009973896486621</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038169087201783</v>
+        <v>1.045542743956793</v>
       </c>
       <c r="J21">
-        <v>1.008141517996802</v>
+        <v>1.025812873188856</v>
       </c>
       <c r="K21">
-        <v>1.016744250874409</v>
+        <v>1.031633801743627</v>
       </c>
       <c r="L21">
-        <v>1.00775369418484</v>
+        <v>1.024579632628332</v>
       </c>
       <c r="M21">
-        <v>1.007267546491588</v>
+        <v>1.02476874242445</v>
       </c>
       <c r="N21">
-        <v>1.009573194587806</v>
+        <v>1.027269645131166</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9714800594632798</v>
+        <v>0.9925993664716491</v>
       </c>
       <c r="D22">
-        <v>0.997037302712616</v>
+        <v>1.014301102639888</v>
       </c>
       <c r="E22">
-        <v>0.9872097372215315</v>
+        <v>1.006743703267812</v>
       </c>
       <c r="F22">
-        <v>0.9860735061214245</v>
+        <v>1.006422583052515</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035880926125805</v>
+        <v>1.044239889119563</v>
       </c>
       <c r="J22">
-        <v>1.003525141314776</v>
+        <v>1.023667852759008</v>
       </c>
       <c r="K22">
-        <v>1.012667680579727</v>
+        <v>1.029594477608823</v>
       </c>
       <c r="L22">
-        <v>1.00303890238967</v>
+        <v>1.022182739475221</v>
       </c>
       <c r="M22">
-        <v>1.001925991636625</v>
+        <v>1.021867872069606</v>
       </c>
       <c r="N22">
-        <v>1.004950262121386</v>
+        <v>1.025121578526269</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9747903176134249</v>
+        <v>0.9944915237370356</v>
       </c>
       <c r="D23">
-        <v>0.9995777945609831</v>
+        <v>1.015719953514672</v>
       </c>
       <c r="E23">
-        <v>0.9901033505444709</v>
+        <v>1.008360082651039</v>
       </c>
       <c r="F23">
-        <v>0.9893089094338887</v>
+        <v>1.00831237193679</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037103894065148</v>
+        <v>1.044934477515322</v>
       </c>
       <c r="J23">
-        <v>1.005990066430983</v>
+        <v>1.024810058156647</v>
       </c>
       <c r="K23">
-        <v>1.014844614521786</v>
+        <v>1.030680544309911</v>
       </c>
       <c r="L23">
-        <v>1.005556020915087</v>
+        <v>1.023458706297205</v>
       </c>
       <c r="M23">
-        <v>1.004777376203272</v>
+        <v>1.023411898980711</v>
       </c>
       <c r="N23">
-        <v>1.007418687713989</v>
+        <v>1.026265405986585</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9873228564291193</v>
+        <v>1.001766257259223</v>
       </c>
       <c r="D24">
-        <v>1.009209831240602</v>
+        <v>1.021183123561456</v>
       </c>
       <c r="E24">
-        <v>1.001080710762917</v>
+        <v>1.014591021182191</v>
       </c>
       <c r="F24">
-        <v>1.001584446302627</v>
+        <v>1.015597343229252</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041705669054925</v>
+        <v>1.047583710581624</v>
       </c>
       <c r="J24">
-        <v>1.015317789701872</v>
+        <v>1.02919648567401</v>
       </c>
       <c r="K24">
-        <v>1.023077119513849</v>
+        <v>1.034848178905344</v>
       </c>
       <c r="L24">
-        <v>1.015088874452174</v>
+        <v>1.02836665733187</v>
       </c>
       <c r="M24">
-        <v>1.015583794305063</v>
+        <v>1.029355978820109</v>
       </c>
       <c r="N24">
-        <v>1.016759657421827</v>
+        <v>1.030658062734154</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000958671042316</v>
+        <v>1.009873762255264</v>
       </c>
       <c r="D25">
-        <v>1.01971086397287</v>
+        <v>1.027285806918846</v>
       </c>
       <c r="E25">
-        <v>1.013064142071681</v>
+        <v>1.021566990356558</v>
       </c>
       <c r="F25">
-        <v>1.014989974540554</v>
+        <v>1.023754507941365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046651515253811</v>
+        <v>1.050491148639577</v>
       </c>
       <c r="J25">
-        <v>1.02545381509906</v>
+        <v>1.034073343494155</v>
       </c>
       <c r="K25">
-        <v>1.032010710210176</v>
+        <v>1.039474813499604</v>
       </c>
       <c r="L25">
-        <v>1.025462983483574</v>
+        <v>1.033839483944163</v>
       </c>
       <c r="M25">
-        <v>1.027359963208349</v>
+        <v>1.035994926941872</v>
       </c>
       <c r="N25">
-        <v>1.026910077137698</v>
+        <v>1.035541846251787</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016095082511975</v>
+        <v>1.01070917244465</v>
       </c>
       <c r="D2">
-        <v>1.031977735181159</v>
+        <v>1.028313435915916</v>
       </c>
       <c r="E2">
-        <v>1.026943744466703</v>
+        <v>1.022237102463207</v>
       </c>
       <c r="F2">
-        <v>1.030043484281751</v>
+        <v>1.025079416828711</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052684465217017</v>
+        <v>1.049952312231918</v>
       </c>
       <c r="J2">
-        <v>1.037804823024337</v>
+        <v>1.032574224890968</v>
       </c>
       <c r="K2">
-        <v>1.043008844862195</v>
+        <v>1.039391923695808</v>
       </c>
       <c r="L2">
-        <v>1.038040050585102</v>
+        <v>1.033395093708304</v>
       </c>
       <c r="M2">
-        <v>1.041099550585775</v>
+        <v>1.036200071885165</v>
       </c>
       <c r="N2">
-        <v>1.039278624910908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014762627105189</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038923778280961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020481129036426</v>
+        <v>1.014238483145994</v>
       </c>
       <c r="D3">
-        <v>1.035289722631473</v>
+        <v>1.030646530731574</v>
       </c>
       <c r="E3">
-        <v>1.030747338011893</v>
+        <v>1.025270576509706</v>
       </c>
       <c r="F3">
-        <v>1.034493864105659</v>
+        <v>1.028727888622327</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054208147013708</v>
+        <v>1.050885055266565</v>
       </c>
       <c r="J3">
-        <v>1.040428613396562</v>
+        <v>1.034348377700881</v>
       </c>
       <c r="K3">
-        <v>1.045490130450988</v>
+        <v>1.040901743175124</v>
       </c>
       <c r="L3">
-        <v>1.041001354107725</v>
+        <v>1.035590011885839</v>
       </c>
       <c r="M3">
-        <v>1.044703622372352</v>
+        <v>1.039005926295288</v>
       </c>
       <c r="N3">
-        <v>1.041906141366415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015354899609344</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039988686837827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023261844440104</v>
+        <v>1.016483418431278</v>
       </c>
       <c r="D4">
-        <v>1.037391097130492</v>
+        <v>1.032133863881204</v>
       </c>
       <c r="E4">
-        <v>1.033164556860213</v>
+        <v>1.027205780992282</v>
       </c>
       <c r="F4">
-        <v>1.037322931563353</v>
+        <v>1.031055640488411</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055163426265635</v>
+        <v>1.051468938335215</v>
       </c>
       <c r="J4">
-        <v>1.042088663502089</v>
+        <v>1.035474672745027</v>
       </c>
       <c r="K4">
-        <v>1.047058254489739</v>
+        <v>1.041859333877181</v>
       </c>
       <c r="L4">
-        <v>1.042878536990514</v>
+        <v>1.036986580464321</v>
       </c>
       <c r="M4">
-        <v>1.046990840358935</v>
+        <v>1.040793160467699</v>
       </c>
       <c r="N4">
-        <v>1.043568548933502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015730968377194</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040666679358249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024417596039774</v>
+        <v>1.017420674339122</v>
       </c>
       <c r="D5">
-        <v>1.038264831937245</v>
+        <v>1.032757621985417</v>
       </c>
       <c r="E5">
-        <v>1.034170581493753</v>
+        <v>1.028015223187716</v>
       </c>
       <c r="F5">
-        <v>1.03850057698504</v>
+        <v>1.032028950379849</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055557859316842</v>
+        <v>1.051711780890686</v>
       </c>
       <c r="J5">
-        <v>1.042777782929031</v>
+        <v>1.03594553499941</v>
       </c>
       <c r="K5">
-        <v>1.047708780231927</v>
+        <v>1.042261030839787</v>
       </c>
       <c r="L5">
-        <v>1.043658660752792</v>
+        <v>1.037570462070335</v>
       </c>
       <c r="M5">
-        <v>1.047941997219852</v>
+        <v>1.041540284929326</v>
       </c>
       <c r="N5">
-        <v>1.044258646989074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015888474054343</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040957873499397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024610887379223</v>
+        <v>1.017580567361357</v>
       </c>
       <c r="D6">
-        <v>1.038410976519655</v>
+        <v>1.032866555467072</v>
       </c>
       <c r="E6">
-        <v>1.03433891071371</v>
+        <v>1.028153583015597</v>
       </c>
       <c r="F6">
-        <v>1.038697635058556</v>
+        <v>1.032194850208556</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055623670912358</v>
+        <v>1.051754735177387</v>
       </c>
       <c r="J6">
-        <v>1.042892982533452</v>
+        <v>1.036027273983087</v>
       </c>
       <c r="K6">
-        <v>1.047817502387843</v>
+        <v>1.042332669987755</v>
       </c>
       <c r="L6">
-        <v>1.043789124734166</v>
+        <v>1.037670970549708</v>
       </c>
       <c r="M6">
-        <v>1.04810110124436</v>
+        <v>1.041668237199711</v>
       </c>
       <c r="N6">
-        <v>1.044374010190147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015916143845317</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041017261202961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023277339152483</v>
+        <v>1.016504137107278</v>
       </c>
       <c r="D7">
-        <v>1.037402809676789</v>
+        <v>1.032154266447971</v>
       </c>
       <c r="E7">
-        <v>1.03317803893586</v>
+        <v>1.027224193063333</v>
       </c>
       <c r="F7">
-        <v>1.037338712721328</v>
+        <v>1.031076506609137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055168724638524</v>
+        <v>1.051478751988041</v>
       </c>
       <c r="J7">
-        <v>1.042097905651579</v>
+        <v>1.035488944474629</v>
       </c>
       <c r="K7">
-        <v>1.047066980764598</v>
+        <v>1.041876632174171</v>
       </c>
       <c r="L7">
-        <v>1.042888996207361</v>
+        <v>1.037001889587801</v>
       </c>
       <c r="M7">
-        <v>1.0470035901362</v>
+        <v>1.040810912530822</v>
       </c>
       <c r="N7">
-        <v>1.043577804207904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015736629348065</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.040698997428025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017589531636541</v>
+        <v>1.011920171805367</v>
       </c>
       <c r="D8">
-        <v>1.033105857323459</v>
+        <v>1.029121383902487</v>
       </c>
       <c r="E8">
-        <v>1.02823850508491</v>
+        <v>1.023277478853087</v>
       </c>
       <c r="F8">
-        <v>1.031558255990134</v>
+        <v>1.026329103530441</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053205850933141</v>
+        <v>1.050279671521702</v>
       </c>
       <c r="J8">
-        <v>1.038699518071253</v>
+        <v>1.033188156582671</v>
       </c>
       <c r="K8">
-        <v>1.043855311073531</v>
+        <v>1.039920822981419</v>
       </c>
       <c r="L8">
-        <v>1.039049085326788</v>
+        <v>1.034151109663902</v>
       </c>
       <c r="M8">
-        <v>1.042327067258029</v>
+        <v>1.037163860605674</v>
       </c>
       <c r="N8">
-        <v>1.040174590527414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014968714141246</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039320643168435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007105394751541</v>
+        <v>1.003520558451214</v>
       </c>
       <c r="D9">
-        <v>1.025200428170798</v>
+        <v>1.023581144403557</v>
       </c>
       <c r="E9">
-        <v>1.019181140154798</v>
+        <v>1.016090522638245</v>
       </c>
       <c r="F9">
-        <v>1.020964451024733</v>
+        <v>1.017687002677854</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049504226810926</v>
+        <v>1.048002514147583</v>
       </c>
       <c r="J9">
-        <v>1.032409714327756</v>
+        <v>1.028949606324564</v>
       </c>
       <c r="K9">
-        <v>1.03789746164521</v>
+        <v>1.036302878302911</v>
       </c>
       <c r="L9">
-        <v>1.031970497552157</v>
+        <v>1.028927827171903</v>
       </c>
       <c r="M9">
-        <v>1.033726311125797</v>
+        <v>1.030499493326791</v>
       </c>
       <c r="N9">
-        <v>1.03387585454115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013553185726927</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036759345383102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9997725948130446</v>
+        <v>0.9976974447511207</v>
       </c>
       <c r="D10">
-        <v>1.019684677187042</v>
+        <v>1.019763507032483</v>
       </c>
       <c r="E10">
-        <v>1.012880782322893</v>
+        <v>1.011140985605138</v>
       </c>
       <c r="F10">
-        <v>1.013597753636628</v>
+        <v>1.011734353179557</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046861209891044</v>
+        <v>1.046377879061511</v>
       </c>
       <c r="J10">
-        <v>1.027995238066396</v>
+        <v>1.02600271654353</v>
       </c>
       <c r="K10">
-        <v>1.033707387336584</v>
+        <v>1.033784864164664</v>
       </c>
       <c r="L10">
-        <v>1.027021300692623</v>
+        <v>1.02531195806719</v>
       </c>
       <c r="M10">
-        <v>1.027725761244482</v>
+        <v>1.025894923852125</v>
       </c>
       <c r="N10">
-        <v>1.029455109217152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012569932821745</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034995767468013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9965079647370779</v>
+        <v>0.9951279516754308</v>
       </c>
       <c r="D11">
-        <v>1.017232983096039</v>
+        <v>1.01809209785918</v>
       </c>
       <c r="E11">
-        <v>1.010084564010162</v>
+        <v>1.008965965518812</v>
       </c>
       <c r="F11">
-        <v>1.01032853896277</v>
+        <v>1.009116578553016</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045672274646167</v>
+        <v>1.045655066288046</v>
       </c>
       <c r="J11">
-        <v>1.026026741511728</v>
+        <v>1.024704827596441</v>
       </c>
       <c r="K11">
-        <v>1.031837067212271</v>
+        <v>1.03268070303194</v>
       </c>
       <c r="L11">
-        <v>1.024818773549994</v>
+        <v>1.023720754747461</v>
       </c>
       <c r="M11">
-        <v>1.025058267798946</v>
+        <v>1.023868593378131</v>
       </c>
       <c r="N11">
-        <v>1.027483817171587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012138348084149</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034247944208464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9952811566893534</v>
+        <v>0.9941590044861555</v>
       </c>
       <c r="D12">
-        <v>1.016312332281137</v>
+        <v>1.017458386065082</v>
       </c>
       <c r="E12">
-        <v>1.00903514655645</v>
+        <v>1.008146539401003</v>
       </c>
       <c r="F12">
-        <v>1.009101618889874</v>
+        <v>1.008131134433757</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04522369943586</v>
+        <v>1.045378196591549</v>
       </c>
       <c r="J12">
-        <v>1.025286577865026</v>
+        <v>1.024212639542321</v>
       </c>
       <c r="K12">
-        <v>1.031133547361918</v>
+        <v>1.032258583918696</v>
       </c>
       <c r="L12">
-        <v>1.023991270687436</v>
+        <v>1.023119311325221</v>
       </c>
       <c r="M12">
-        <v>1.024056499219903</v>
+        <v>1.023104195303431</v>
       </c>
       <c r="N12">
-        <v>1.026742602407608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011973991610855</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033949491726325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9955449651914168</v>
+        <v>0.9943661923383803</v>
       </c>
       <c r="D13">
-        <v>1.016510274569771</v>
+        <v>1.017593016108207</v>
       </c>
       <c r="E13">
-        <v>1.009260746983074</v>
+        <v>1.008321600067923</v>
       </c>
       <c r="F13">
-        <v>1.009365378162237</v>
+        <v>1.008341836455458</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045320239415287</v>
+        <v>1.04543694601683</v>
       </c>
       <c r="J13">
-        <v>1.025445758618688</v>
+        <v>1.02431741278854</v>
       </c>
       <c r="K13">
-        <v>1.031284859477356</v>
+        <v>1.032347819690761</v>
       </c>
       <c r="L13">
-        <v>1.024169205135788</v>
+        <v>1.023247584785826</v>
       </c>
       <c r="M13">
-        <v>1.024271886299643</v>
+        <v>1.023267443068273</v>
       </c>
       <c r="N13">
-        <v>1.026902009216199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012008835940774</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034010088408234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9964068500854638</v>
+        <v>0.9950475877623109</v>
       </c>
       <c r="D14">
-        <v>1.017157088259955</v>
+        <v>1.018039162736914</v>
       </c>
       <c r="E14">
-        <v>1.009998041960527</v>
+        <v>1.008897935219169</v>
       </c>
       <c r="F14">
-        <v>1.010227382143293</v>
+        <v>1.009034839348373</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045635338702751</v>
+        <v>1.04563191058978</v>
       </c>
       <c r="J14">
-        <v>1.025965744955713</v>
+        <v>1.024663804922558</v>
       </c>
       <c r="K14">
-        <v>1.031779095887545</v>
+        <v>1.032645254374122</v>
       </c>
       <c r="L14">
-        <v>1.024750566079339</v>
+        <v>1.023670729358808</v>
       </c>
       <c r="M14">
-        <v>1.024975687798568</v>
+        <v>1.023805107822279</v>
       </c>
       <c r="N14">
-        <v>1.027422733993466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012124588643304</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034221811544203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9969359840773231</v>
+        <v>0.9954683319284214</v>
       </c>
       <c r="D15">
-        <v>1.017554274265437</v>
+        <v>1.018316428177636</v>
       </c>
       <c r="E15">
-        <v>1.010450868759973</v>
+        <v>1.009254168251794</v>
       </c>
       <c r="F15">
-        <v>1.010756802657071</v>
+        <v>1.009462836668178</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045828552297956</v>
+        <v>1.045753132910368</v>
       </c>
       <c r="J15">
-        <v>1.026284923419425</v>
+        <v>1.024878618240085</v>
       </c>
       <c r="K15">
-        <v>1.032082433168122</v>
+        <v>1.032830940589642</v>
       </c>
       <c r="L15">
-        <v>1.025107504064682</v>
+        <v>1.023932679579404</v>
       </c>
       <c r="M15">
-        <v>1.025407856225234</v>
+        <v>1.024137528616901</v>
       </c>
       <c r="N15">
-        <v>1.027742365727207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012196654244697</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034358977148458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1091,93 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9999873106745337</v>
+        <v>0.9978851632042304</v>
       </c>
       <c r="D16">
-        <v>1.019846014460152</v>
+        <v>1.019900263834761</v>
       </c>
       <c r="E16">
-        <v>1.013064877346013</v>
+        <v>1.011301708279037</v>
       </c>
       <c r="F16">
-        <v>1.013812992628402</v>
+        <v>1.011924854523255</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04693915581009</v>
+        <v>1.046439625970093</v>
       </c>
       <c r="J16">
-        <v>1.028124645179417</v>
+        <v>1.026105885542929</v>
       </c>
       <c r="K16">
-        <v>1.03383030216299</v>
+        <v>1.033883623486467</v>
       </c>
       <c r="L16">
-        <v>1.027166184156526</v>
+        <v>1.025433774297184</v>
       </c>
       <c r="M16">
-        <v>1.027901290105323</v>
+        <v>1.02604603363875</v>
       </c>
       <c r="N16">
-        <v>1.029584700103117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012606644555361</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035106433564296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.001876867329941</v>
+        <v>0.9993853076235043</v>
       </c>
       <c r="D17">
-        <v>1.02126628533722</v>
+        <v>1.020884817730639</v>
       </c>
       <c r="E17">
-        <v>1.014685965576832</v>
+        <v>1.012574797921248</v>
       </c>
       <c r="F17">
-        <v>1.015708352788375</v>
+        <v>1.013455545297927</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047623713262965</v>
+        <v>1.046862885598407</v>
       </c>
       <c r="J17">
-        <v>1.029263110869947</v>
+        <v>1.026867128064156</v>
       </c>
       <c r="K17">
-        <v>1.034911438327145</v>
+        <v>1.034536308383457</v>
       </c>
       <c r="L17">
-        <v>1.0284413049237</v>
+        <v>1.026365880120608</v>
       </c>
       <c r="M17">
-        <v>1.02944645161342</v>
+        <v>1.027231692752961</v>
       </c>
       <c r="N17">
-        <v>1.030724782545511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012860978665786</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035570496258064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002970432612679</v>
+        <v>1.000249036602781</v>
       </c>
       <c r="D18">
-        <v>1.022088627267861</v>
+        <v>1.021447719062392</v>
       </c>
       <c r="E18">
-        <v>1.015624984671155</v>
+        <v>1.013308073383955</v>
       </c>
       <c r="F18">
-        <v>1.016806271639106</v>
+        <v>1.014338059290792</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048018730255164</v>
+        <v>1.047102705820752</v>
       </c>
       <c r="J18">
-        <v>1.029921688372262</v>
+        <v>1.027302638935166</v>
       </c>
       <c r="K18">
-        <v>1.035536672041707</v>
+        <v>1.03490622919606</v>
       </c>
       <c r="L18">
-        <v>1.029179352970881</v>
+        <v>1.026900979111323</v>
       </c>
       <c r="M18">
-        <v>1.030341078469686</v>
+        <v>1.027913805160684</v>
       </c>
       <c r="N18">
-        <v>1.03138429530342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013005770844814</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.03582039574764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003341876124025</v>
+        <v>1.000547001598806</v>
       </c>
       <c r="D19">
-        <v>1.022368007345942</v>
+        <v>1.021645465871694</v>
       </c>
       <c r="E19">
-        <v>1.015944073497965</v>
+        <v>1.01356154383073</v>
       </c>
       <c r="F19">
-        <v>1.017179361718056</v>
+        <v>1.014642415288635</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048152703758199</v>
+        <v>1.047187470058747</v>
       </c>
       <c r="J19">
-        <v>1.030145330513956</v>
+        <v>1.027454853303763</v>
       </c>
       <c r="K19">
-        <v>1.035748960287692</v>
+        <v>1.035038147176167</v>
       </c>
       <c r="L19">
-        <v>1.029430053173884</v>
+        <v>1.027086911877112</v>
       </c>
       <c r="M19">
-        <v>1.030645012822652</v>
+        <v>1.028149884687566</v>
       </c>
       <c r="N19">
-        <v>1.031608255042607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013056943697177</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03592006383775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001675028527983</v>
+        <v>0.9992244966881775</v>
       </c>
       <c r="D20">
-        <v>1.021114535669235</v>
+        <v>1.020778876660917</v>
       </c>
       <c r="E20">
-        <v>1.014512717828637</v>
+        <v>1.012438208145837</v>
       </c>
       <c r="F20">
-        <v>1.015505790632889</v>
+        <v>1.013291390507373</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047550710659891</v>
+        <v>1.046817401129148</v>
       </c>
       <c r="J20">
-        <v>1.029141532987333</v>
+        <v>1.026785345453437</v>
       </c>
       <c r="K20">
-        <v>1.034796001300696</v>
+        <v>1.034465936573192</v>
       </c>
       <c r="L20">
-        <v>1.028305090115355</v>
+        <v>1.026265816650463</v>
       </c>
       <c r="M20">
-        <v>1.029281360997991</v>
+        <v>1.027104484882987</v>
       </c>
       <c r="N20">
-        <v>1.030603032008359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012833597248108</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035519404228272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9961534440446994</v>
+        <v>0.9948532194216345</v>
       </c>
       <c r="D21">
-        <v>1.016966897218869</v>
+        <v>1.017916567821241</v>
       </c>
       <c r="E21">
-        <v>1.009781229019861</v>
+        <v>1.008734050554348</v>
       </c>
       <c r="F21">
-        <v>1.009973896486621</v>
+        <v>1.008836829490883</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045542743956793</v>
+        <v>1.045579285874873</v>
       </c>
       <c r="J21">
-        <v>1.025812873188856</v>
+        <v>1.024567712696712</v>
       </c>
       <c r="K21">
-        <v>1.031633801743627</v>
+        <v>1.03256627380701</v>
       </c>
       <c r="L21">
-        <v>1.024579632628332</v>
+        <v>1.023551821659931</v>
       </c>
       <c r="M21">
-        <v>1.02476874242445</v>
+        <v>1.023652697386638</v>
       </c>
       <c r="N21">
-        <v>1.027269645131166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012093270520358</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034179498727765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9925993664716491</v>
+        <v>0.9920441688896141</v>
       </c>
       <c r="D22">
-        <v>1.014301102639888</v>
+        <v>1.01607629999937</v>
       </c>
       <c r="E22">
-        <v>1.006743703267812</v>
+        <v>1.006360324668534</v>
       </c>
       <c r="F22">
-        <v>1.006422583052515</v>
+        <v>1.005982979210901</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044239889119563</v>
+        <v>1.04477065273253</v>
       </c>
       <c r="J22">
-        <v>1.023667852759008</v>
+        <v>1.023137566947954</v>
       </c>
       <c r="K22">
-        <v>1.029594477608823</v>
+        <v>1.031335870776101</v>
       </c>
       <c r="L22">
-        <v>1.022182739475221</v>
+        <v>1.021806826578176</v>
       </c>
       <c r="M22">
-        <v>1.021867872069606</v>
+        <v>1.021436836624932</v>
       </c>
       <c r="N22">
-        <v>1.025121578526269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011614931157509</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033296030954798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9944915237370356</v>
+        <v>0.9935312565568938</v>
       </c>
       <c r="D23">
-        <v>1.015719953514672</v>
+        <v>1.017044430955374</v>
       </c>
       <c r="E23">
-        <v>1.008360082651039</v>
+        <v>1.007615588799117</v>
       </c>
       <c r="F23">
-        <v>1.00831237193679</v>
+        <v>1.007493329285473</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044934477515322</v>
+        <v>1.045196090709828</v>
       </c>
       <c r="J23">
-        <v>1.024810058156647</v>
+        <v>1.023891586323551</v>
       </c>
       <c r="K23">
-        <v>1.030680544309911</v>
+        <v>1.031980457995098</v>
       </c>
       <c r="L23">
-        <v>1.023458706297205</v>
+        <v>1.022728322109781</v>
       </c>
       <c r="M23">
-        <v>1.023411898980711</v>
+        <v>1.022608382267605</v>
       </c>
       <c r="N23">
-        <v>1.026265405986585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011866166148387</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033742137742904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001766257259223</v>
+        <v>0.9992852205589695</v>
       </c>
       <c r="D24">
-        <v>1.021183123561456</v>
+        <v>1.020809514931592</v>
       </c>
       <c r="E24">
-        <v>1.014591021182191</v>
+        <v>1.012488752853717</v>
       </c>
       <c r="F24">
-        <v>1.015597343229252</v>
+        <v>1.013354015251492</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047583710581624</v>
+        <v>1.046828631795487</v>
       </c>
       <c r="J24">
-        <v>1.02919648567401</v>
+        <v>1.026810813121332</v>
       </c>
       <c r="K24">
-        <v>1.034848178905344</v>
+        <v>1.034480788287577</v>
       </c>
       <c r="L24">
-        <v>1.02836665733187</v>
+        <v>1.02630004499956</v>
       </c>
       <c r="M24">
-        <v>1.029355978820109</v>
+        <v>1.027150608794545</v>
       </c>
       <c r="N24">
-        <v>1.030658062734154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012840604850147</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035502487050888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009873762255264</v>
+        <v>1.00574315599507</v>
       </c>
       <c r="D25">
-        <v>1.027285806918846</v>
+        <v>1.025053685875521</v>
       </c>
       <c r="E25">
-        <v>1.021566990356558</v>
+        <v>1.017987690164188</v>
       </c>
       <c r="F25">
-        <v>1.023754507941365</v>
+        <v>1.019966315666231</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050491148639577</v>
+        <v>1.048619932447244</v>
       </c>
       <c r="J25">
-        <v>1.034073343494155</v>
+        <v>1.030078773898643</v>
       </c>
       <c r="K25">
-        <v>1.039474813499604</v>
+        <v>1.037275137810015</v>
       </c>
       <c r="L25">
-        <v>1.033839483944163</v>
+        <v>1.030313043288743</v>
       </c>
       <c r="M25">
-        <v>1.035994926941872</v>
+        <v>1.032262389956554</v>
       </c>
       <c r="N25">
-        <v>1.035541846251787</v>
+        <v>1.013931733359827</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037475373548679</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01070917244465</v>
+        <v>1.010236949197588</v>
       </c>
       <c r="D2">
-        <v>1.028313435915916</v>
+        <v>1.027332754314599</v>
       </c>
       <c r="E2">
-        <v>1.022237102463207</v>
+        <v>1.021822524082733</v>
       </c>
       <c r="F2">
-        <v>1.025079416828711</v>
+        <v>1.024642695623068</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049952312231918</v>
+        <v>1.049461926862218</v>
       </c>
       <c r="J2">
-        <v>1.032574224890968</v>
+        <v>1.032115727310867</v>
       </c>
       <c r="K2">
-        <v>1.039391923695808</v>
+        <v>1.038423993748298</v>
       </c>
       <c r="L2">
-        <v>1.033395093708304</v>
+        <v>1.032985982931572</v>
       </c>
       <c r="M2">
-        <v>1.036200071885165</v>
+        <v>1.035769070501541</v>
       </c>
       <c r="N2">
-        <v>1.014762627105189</v>
+        <v>1.01571768134515</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038923778280961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038248139338803</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022305543037072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014238483145994</v>
+        <v>1.013643802880432</v>
       </c>
       <c r="D3">
-        <v>1.030646530731574</v>
+        <v>1.0294977690263</v>
       </c>
       <c r="E3">
-        <v>1.025270576509706</v>
+        <v>1.024746274560563</v>
       </c>
       <c r="F3">
-        <v>1.028727888622327</v>
+        <v>1.028176653542235</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050885055266565</v>
+        <v>1.050299720302514</v>
       </c>
       <c r="J3">
-        <v>1.034348377700881</v>
+        <v>1.033769310338702</v>
       </c>
       <c r="K3">
-        <v>1.040901743175124</v>
+        <v>1.039766635107425</v>
       </c>
       <c r="L3">
-        <v>1.035590011885839</v>
+        <v>1.035072018178691</v>
       </c>
       <c r="M3">
-        <v>1.039005926295288</v>
+        <v>1.038461268546031</v>
       </c>
       <c r="N3">
-        <v>1.015354899609344</v>
+        <v>1.016156292260067</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039988686837827</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039194562522912</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02256276107721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016483418431278</v>
+        <v>1.015811540266053</v>
       </c>
       <c r="D4">
-        <v>1.032133863881204</v>
+        <v>1.030878656292356</v>
       </c>
       <c r="E4">
-        <v>1.027205780992282</v>
+        <v>1.026612257536858</v>
       </c>
       <c r="F4">
-        <v>1.031055640488411</v>
+        <v>1.030432241341208</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051468938335215</v>
+        <v>1.050823380327914</v>
       </c>
       <c r="J4">
-        <v>1.035474672745027</v>
+        <v>1.034819254329687</v>
       </c>
       <c r="K4">
-        <v>1.041859333877181</v>
+        <v>1.040618157172126</v>
       </c>
       <c r="L4">
-        <v>1.036986580464321</v>
+        <v>1.036399764892217</v>
       </c>
       <c r="M4">
-        <v>1.040793160467699</v>
+        <v>1.040176742454209</v>
       </c>
       <c r="N4">
-        <v>1.015730968377194</v>
+        <v>1.016434874255346</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040666679358249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039797638152516</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022723512468689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017420674339122</v>
+        <v>1.01671671857106</v>
       </c>
       <c r="D5">
-        <v>1.032757621985417</v>
+        <v>1.031458127256441</v>
       </c>
       <c r="E5">
-        <v>1.028015223187716</v>
+        <v>1.027392923122813</v>
       </c>
       <c r="F5">
-        <v>1.032028950379849</v>
+        <v>1.031375569520711</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051711780890686</v>
+        <v>1.051041135321101</v>
       </c>
       <c r="J5">
-        <v>1.03594553499941</v>
+        <v>1.035258315307571</v>
       </c>
       <c r="K5">
-        <v>1.042261030839787</v>
+        <v>1.040975680197992</v>
       </c>
       <c r="L5">
-        <v>1.037570462070335</v>
+        <v>1.036955006800997</v>
       </c>
       <c r="M5">
-        <v>1.041540284929326</v>
+        <v>1.040894022523124</v>
       </c>
       <c r="N5">
-        <v>1.015888474054343</v>
+        <v>1.016551598391118</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040957873499397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040058309474552</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022790834864497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017580567361357</v>
+        <v>1.016871142432933</v>
       </c>
       <c r="D6">
-        <v>1.032866555467072</v>
+        <v>1.031559567482845</v>
       </c>
       <c r="E6">
-        <v>1.028153583015597</v>
+        <v>1.027526371969919</v>
       </c>
       <c r="F6">
-        <v>1.032194850208556</v>
+        <v>1.031536354474584</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051754735177387</v>
+        <v>1.051079831615543</v>
       </c>
       <c r="J6">
-        <v>1.036027273983087</v>
+        <v>1.035334629410746</v>
       </c>
       <c r="K6">
-        <v>1.042332669987755</v>
+        <v>1.041039843292657</v>
       </c>
       <c r="L6">
-        <v>1.037670970549708</v>
+        <v>1.037050626558202</v>
       </c>
       <c r="M6">
-        <v>1.041668237199711</v>
+        <v>1.041016882196538</v>
       </c>
       <c r="N6">
-        <v>1.015916143845317</v>
+        <v>1.016572140222041</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041017261202961</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040113280628049</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022803377863948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016504137107278</v>
+        <v>1.015838295145276</v>
       </c>
       <c r="D7">
-        <v>1.032154266447971</v>
+        <v>1.030903058760529</v>
       </c>
       <c r="E7">
-        <v>1.027224193063333</v>
+        <v>1.026636193859388</v>
       </c>
       <c r="F7">
-        <v>1.031076506609137</v>
+        <v>1.030458845524093</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I7">
-        <v>1.051478751988041</v>
+        <v>1.050836226055303</v>
       </c>
       <c r="J7">
-        <v>1.035488944474629</v>
+        <v>1.03483940741727</v>
       </c>
       <c r="K7">
-        <v>1.041876632174171</v>
+        <v>1.040639405250006</v>
       </c>
       <c r="L7">
-        <v>1.037001889587801</v>
+        <v>1.036420533277936</v>
       </c>
       <c r="M7">
-        <v>1.040810912530822</v>
+        <v>1.040200165623939</v>
       </c>
       <c r="N7">
-        <v>1.015736629348065</v>
+        <v>1.016466696408211</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040698997428025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039834749671341</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022729366024835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011920171805367</v>
+        <v>1.011426482988818</v>
       </c>
       <c r="D8">
-        <v>1.029121383902487</v>
+        <v>1.028097913520765</v>
       </c>
       <c r="E8">
-        <v>1.023277478853087</v>
+        <v>1.022844079949762</v>
       </c>
       <c r="F8">
-        <v>1.026329103530441</v>
+        <v>1.025872634307206</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050279671521702</v>
+        <v>1.049767538549085</v>
       </c>
       <c r="J8">
-        <v>1.033188156582671</v>
+        <v>1.032708340854236</v>
       </c>
       <c r="K8">
-        <v>1.039920822981419</v>
+        <v>1.038910270110041</v>
       </c>
       <c r="L8">
-        <v>1.034151109663902</v>
+        <v>1.033723255208683</v>
       </c>
       <c r="M8">
-        <v>1.037163860605674</v>
+        <v>1.036713187838201</v>
       </c>
       <c r="N8">
-        <v>1.014968714141246</v>
+        <v>1.015954102129194</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039320643168435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038617135088858</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022402366981978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003520558451214</v>
+        <v>1.003325750919768</v>
       </c>
       <c r="D9">
-        <v>1.023581144403557</v>
+        <v>1.022962535741123</v>
       </c>
       <c r="E9">
-        <v>1.016090522638245</v>
+        <v>1.015924640865915</v>
       </c>
       <c r="F9">
-        <v>1.017687002677854</v>
+        <v>1.017510259346689</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048002514147583</v>
+        <v>1.047718900599391</v>
       </c>
       <c r="J9">
-        <v>1.028949606324564</v>
+        <v>1.02876161249589</v>
       </c>
       <c r="K9">
-        <v>1.036302878302911</v>
+        <v>1.035693732180742</v>
       </c>
       <c r="L9">
-        <v>1.028927827171903</v>
+        <v>1.028764529395781</v>
       </c>
       <c r="M9">
-        <v>1.030499493326791</v>
+        <v>1.030325492197223</v>
       </c>
       <c r="N9">
-        <v>1.013553185726927</v>
+        <v>1.014916414099003</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036759345383102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03633937925972</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021771535865259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9976974447511207</v>
+        <v>0.9977447806866826</v>
       </c>
       <c r="D10">
-        <v>1.019763507032483</v>
+        <v>1.019450141780952</v>
       </c>
       <c r="E10">
-        <v>1.011140985605138</v>
+        <v>1.011192039317422</v>
       </c>
       <c r="F10">
-        <v>1.011734353179557</v>
+        <v>1.011784889440051</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I10">
-        <v>1.046377879061511</v>
+        <v>1.046269485595518</v>
       </c>
       <c r="J10">
-        <v>1.02600271654353</v>
+        <v>1.026048162224229</v>
       </c>
       <c r="K10">
-        <v>1.033784864164664</v>
+        <v>1.033476879041836</v>
       </c>
       <c r="L10">
-        <v>1.02531195806719</v>
+        <v>1.025362116181135</v>
       </c>
       <c r="M10">
-        <v>1.025894923852125</v>
+        <v>1.025944574937633</v>
       </c>
       <c r="N10">
-        <v>1.012569932821745</v>
+        <v>1.014313988692844</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034995767468013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03479042215804</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021327100478746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9951279516754308</v>
+        <v>0.995331689874742</v>
       </c>
       <c r="D11">
-        <v>1.01809209785918</v>
+        <v>1.017948797942728</v>
       </c>
       <c r="E11">
-        <v>1.008965965518812</v>
+        <v>1.009158165859736</v>
       </c>
       <c r="F11">
-        <v>1.009116578553016</v>
+        <v>1.0093148056384</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045655066288046</v>
+        <v>1.045649271577398</v>
       </c>
       <c r="J11">
-        <v>1.024704827596441</v>
+        <v>1.024899973891883</v>
       </c>
       <c r="K11">
-        <v>1.03268070303194</v>
+        <v>1.032539982635987</v>
       </c>
       <c r="L11">
-        <v>1.023720754747461</v>
+        <v>1.023909414806002</v>
       </c>
       <c r="M11">
-        <v>1.023868593378131</v>
+        <v>1.024063170618299</v>
       </c>
       <c r="N11">
-        <v>1.012138348084149</v>
+        <v>1.014239004470998</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034247944208464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03416408328972</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02114137432596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9941590044861555</v>
+        <v>0.994426397246766</v>
       </c>
       <c r="D12">
-        <v>1.017458386065082</v>
+        <v>1.017382434421876</v>
       </c>
       <c r="E12">
-        <v>1.008146539401003</v>
+        <v>1.008396308294896</v>
       </c>
       <c r="F12">
-        <v>1.008131134433757</v>
+        <v>1.008389586205377</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045378196591549</v>
+        <v>1.045413398194129</v>
       </c>
       <c r="J12">
-        <v>1.024212639542321</v>
+        <v>1.024468529536203</v>
       </c>
       <c r="K12">
-        <v>1.032258583918696</v>
+        <v>1.032184023228114</v>
       </c>
       <c r="L12">
-        <v>1.023119311325221</v>
+        <v>1.023364397001894</v>
       </c>
       <c r="M12">
-        <v>1.023104195303431</v>
+        <v>1.023357800913246</v>
       </c>
       <c r="N12">
-        <v>1.011973991610855</v>
+        <v>1.014226408610805</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033949491726325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033912413190081</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021069938540276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9943661923383803</v>
+        <v>0.9946197846112378</v>
       </c>
       <c r="D13">
-        <v>1.017593016108207</v>
+        <v>1.017502511582537</v>
       </c>
       <c r="E13">
-        <v>1.008321600067923</v>
+        <v>1.00855888847893</v>
       </c>
       <c r="F13">
-        <v>1.008341836455458</v>
+        <v>1.008587231019586</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04543694601683</v>
+        <v>1.04546328132871</v>
       </c>
       <c r="J13">
-        <v>1.02431741278854</v>
+        <v>1.024560142179556</v>
       </c>
       <c r="K13">
-        <v>1.032347819690761</v>
+        <v>1.032258966553605</v>
       </c>
       <c r="L13">
-        <v>1.023247584785826</v>
+        <v>1.023480440846688</v>
       </c>
       <c r="M13">
-        <v>1.023267443068273</v>
+        <v>1.023508254154227</v>
       </c>
       <c r="N13">
-        <v>1.012008835940774</v>
+        <v>1.014228078963145</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034010088408234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033962661113034</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021084828650052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9950475877623109</v>
+        <v>0.99525651713484</v>
       </c>
       <c r="D14">
-        <v>1.018039162736914</v>
+        <v>1.017901378399921</v>
       </c>
       <c r="E14">
-        <v>1.008897935219169</v>
+        <v>1.009094830413403</v>
       </c>
       <c r="F14">
-        <v>1.009034839348373</v>
+        <v>1.00923797755706</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04563191058978</v>
+        <v>1.045629469536613</v>
       </c>
       <c r="J14">
-        <v>1.024663804922558</v>
+        <v>1.024863908898829</v>
       </c>
       <c r="K14">
-        <v>1.032645254374122</v>
+        <v>1.032509953829487</v>
       </c>
       <c r="L14">
-        <v>1.023670729358808</v>
+        <v>1.023863992428001</v>
       </c>
       <c r="M14">
-        <v>1.023805107822279</v>
+        <v>1.024004500096193</v>
       </c>
       <c r="N14">
-        <v>1.012124588643304</v>
+        <v>1.01423749665753</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034221811544203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034141679202019</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021135283669997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9954683319284214</v>
+        <v>0.995650266763396</v>
       </c>
       <c r="D15">
-        <v>1.018316428177636</v>
+        <v>1.018149899344336</v>
       </c>
       <c r="E15">
-        <v>1.009254168251794</v>
+        <v>1.009426653702567</v>
       </c>
       <c r="F15">
-        <v>1.009462836668178</v>
+        <v>1.009640440437051</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045753132910368</v>
+        <v>1.045733226224249</v>
       </c>
       <c r="J15">
-        <v>1.024878618240085</v>
+        <v>1.025052934331782</v>
       </c>
       <c r="K15">
-        <v>1.032830940589642</v>
+        <v>1.032667391216963</v>
       </c>
       <c r="L15">
-        <v>1.023932679579404</v>
+        <v>1.024102007781753</v>
       </c>
       <c r="M15">
-        <v>1.024137528616901</v>
+        <v>1.024311883220464</v>
       </c>
       <c r="N15">
-        <v>1.012196654244697</v>
+        <v>1.01424609856243</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034358977148458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034259440641218</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021167229270407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,93 +1223,111 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9978851632042304</v>
+        <v>0.9979218963792909</v>
       </c>
       <c r="D16">
-        <v>1.019900263834761</v>
+        <v>1.019575385270309</v>
       </c>
       <c r="E16">
-        <v>1.011301708279037</v>
+        <v>1.011343142655915</v>
       </c>
       <c r="F16">
-        <v>1.011924854523255</v>
+        <v>1.011965340116069</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046439625970093</v>
+        <v>1.046324262085394</v>
       </c>
       <c r="J16">
-        <v>1.026105885542929</v>
+        <v>1.026141157317487</v>
       </c>
       <c r="K16">
-        <v>1.033883623486467</v>
+        <v>1.033564304568229</v>
       </c>
       <c r="L16">
-        <v>1.025433774297184</v>
+        <v>1.02547448424042</v>
       </c>
       <c r="M16">
-        <v>1.02604603363875</v>
+        <v>1.026085812514023</v>
       </c>
       <c r="N16">
-        <v>1.012606644555361</v>
+        <v>1.014327863163557</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035106433564296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034897059276463</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021347176472124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9993853076235043</v>
+        <v>0.9993417487125777</v>
       </c>
       <c r="D17">
-        <v>1.020884817730639</v>
+        <v>1.020468624723141</v>
       </c>
       <c r="E17">
-        <v>1.012574797921248</v>
+        <v>1.012543929682463</v>
       </c>
       <c r="F17">
-        <v>1.013455545297927</v>
+        <v>1.013420365722427</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046862885598407</v>
+        <v>1.046693231848905</v>
       </c>
       <c r="J17">
-        <v>1.026867128064156</v>
+        <v>1.026825246069315</v>
       </c>
       <c r="K17">
-        <v>1.034536308383457</v>
+        <v>1.034127036924152</v>
       </c>
       <c r="L17">
-        <v>1.026365880120608</v>
+        <v>1.026335535919782</v>
       </c>
       <c r="M17">
-        <v>1.027231692752961</v>
+        <v>1.027197109071601</v>
       </c>
       <c r="N17">
-        <v>1.012860978665786</v>
+        <v>1.014415170590417</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035570496258064</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035297767552477</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021460028517096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000249036602781</v>
+        <v>1.000163146456299</v>
       </c>
       <c r="D18">
-        <v>1.021447719062392</v>
+        <v>1.020981615627212</v>
       </c>
       <c r="E18">
-        <v>1.013308073383955</v>
+        <v>1.013239165304433</v>
       </c>
       <c r="F18">
-        <v>1.014338059290792</v>
+        <v>1.014263059377762</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047102705820752</v>
+        <v>1.046903736069255</v>
       </c>
       <c r="J18">
-        <v>1.027302638935166</v>
+        <v>1.027219991731234</v>
       </c>
       <c r="K18">
-        <v>1.03490622919606</v>
+        <v>1.034447747349717</v>
       </c>
       <c r="L18">
-        <v>1.026900979111323</v>
+        <v>1.026833220664045</v>
       </c>
       <c r="M18">
-        <v>1.027913805160684</v>
+        <v>1.027840053252205</v>
       </c>
       <c r="N18">
-        <v>1.013005770844814</v>
+        <v>1.014478438110455</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03582039574764</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035511735716858</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021523508555065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000547001598806</v>
+        <v>1.000447171540509</v>
       </c>
       <c r="D19">
-        <v>1.021645465871694</v>
+        <v>1.021162693689363</v>
       </c>
       <c r="E19">
-        <v>1.01356154383073</v>
+        <v>1.013480107452975</v>
       </c>
       <c r="F19">
-        <v>1.014642415288635</v>
+        <v>1.014554302335472</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047187470058747</v>
+        <v>1.046978750559481</v>
       </c>
       <c r="J19">
-        <v>1.027454853303763</v>
+        <v>1.027358767404601</v>
       </c>
       <c r="K19">
-        <v>1.035038147176167</v>
+        <v>1.034563223280195</v>
       </c>
       <c r="L19">
-        <v>1.027086911877112</v>
+        <v>1.02700682603293</v>
       </c>
       <c r="M19">
-        <v>1.028149884687566</v>
+        <v>1.028063228999699</v>
       </c>
       <c r="N19">
-        <v>1.013056943697177</v>
+        <v>1.014504000901345</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03592006383775</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035600400606681</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021547026575085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9992244966881775</v>
+        <v>0.9991891481343069</v>
       </c>
       <c r="D20">
-        <v>1.020778876660917</v>
+        <v>1.020372183152499</v>
       </c>
       <c r="E20">
-        <v>1.012438208145837</v>
+        <v>1.012414728079023</v>
       </c>
       <c r="F20">
-        <v>1.013291390507373</v>
+        <v>1.013263943089374</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046817401129148</v>
+        <v>1.046653363582505</v>
       </c>
       <c r="J20">
-        <v>1.026785345453437</v>
+        <v>1.026751362583898</v>
       </c>
       <c r="K20">
-        <v>1.034465936573192</v>
+        <v>1.034066027599812</v>
       </c>
       <c r="L20">
-        <v>1.026265816650463</v>
+        <v>1.026242736467448</v>
       </c>
       <c r="M20">
-        <v>1.027104484882987</v>
+        <v>1.02707750390246</v>
       </c>
       <c r="N20">
-        <v>1.012833597248108</v>
+        <v>1.014404203061608</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035519404228272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035253165904972</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021447729374029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9948532194216345</v>
+        <v>0.9950913984910296</v>
       </c>
       <c r="D21">
-        <v>1.017916567821241</v>
+        <v>1.01780415531934</v>
       </c>
       <c r="E21">
-        <v>1.008734050554348</v>
+        <v>1.008957666853119</v>
       </c>
       <c r="F21">
-        <v>1.008836829490883</v>
+        <v>1.009067814493816</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045579285874873</v>
+        <v>1.045593625041837</v>
       </c>
       <c r="J21">
-        <v>1.024567712696712</v>
+        <v>1.024795789611156</v>
       </c>
       <c r="K21">
-        <v>1.03256627380701</v>
+        <v>1.032455894918321</v>
       </c>
       <c r="L21">
-        <v>1.023551821659931</v>
+        <v>1.02377129778857</v>
       </c>
       <c r="M21">
-        <v>1.023652697386638</v>
+        <v>1.023879406967308</v>
       </c>
       <c r="N21">
-        <v>1.012093270520358</v>
+        <v>1.014301671203743</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034179498727765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034118299832794</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021126500057556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9920441688896141</v>
+        <v>0.992457081786736</v>
       </c>
       <c r="D22">
-        <v>1.01607629999937</v>
+        <v>1.016152002572865</v>
       </c>
       <c r="E22">
-        <v>1.006360324668534</v>
+        <v>1.006741907153647</v>
       </c>
       <c r="F22">
-        <v>1.005982979210901</v>
+        <v>1.0063793083732</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04477065273253</v>
+        <v>1.044898584021503</v>
       </c>
       <c r="J22">
-        <v>1.023137566947954</v>
+        <v>1.023531948597023</v>
       </c>
       <c r="K22">
-        <v>1.031335870776101</v>
+        <v>1.031410135217089</v>
       </c>
       <c r="L22">
-        <v>1.021806826578176</v>
+        <v>1.022180978320204</v>
       </c>
       <c r="M22">
-        <v>1.021436836624932</v>
+        <v>1.021825440429162</v>
       </c>
       <c r="N22">
-        <v>1.011614931157509</v>
+        <v>1.014222884251693</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033296030954798</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033364084667958</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020914305708317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9935312565568938</v>
+        <v>0.9938409740713231</v>
       </c>
       <c r="D23">
-        <v>1.017044430955374</v>
+        <v>1.017012804637435</v>
       </c>
       <c r="E23">
-        <v>1.007615588799117</v>
+        <v>1.007903690290552</v>
       </c>
       <c r="F23">
-        <v>1.007493329285473</v>
+        <v>1.007791874011472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045196090709828</v>
+        <v>1.045258364753593</v>
       </c>
       <c r="J23">
-        <v>1.023891586323551</v>
+        <v>1.024187810867991</v>
       </c>
       <c r="K23">
-        <v>1.031980457995098</v>
+        <v>1.031949417246607</v>
       </c>
       <c r="L23">
-        <v>1.022728322109781</v>
+        <v>1.023010960262869</v>
       </c>
       <c r="M23">
-        <v>1.022608382267605</v>
+        <v>1.022901263898048</v>
       </c>
       <c r="N23">
-        <v>1.011866166148387</v>
+        <v>1.01422079470446</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033742137742904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03373479240008</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021022156104681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9992852205589695</v>
+        <v>0.9992468029490746</v>
       </c>
       <c r="D24">
-        <v>1.020809514931592</v>
+        <v>1.020399044669297</v>
       </c>
       <c r="E24">
-        <v>1.012488752853717</v>
+        <v>1.012462548412131</v>
       </c>
       <c r="F24">
-        <v>1.013354015251492</v>
+        <v>1.013323707479079</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046828631795487</v>
+        <v>1.046662417730298</v>
       </c>
       <c r="J24">
-        <v>1.026810813121332</v>
+        <v>1.026773877435084</v>
       </c>
       <c r="K24">
-        <v>1.034480788287577</v>
+        <v>1.034077156292024</v>
       </c>
       <c r="L24">
-        <v>1.02630004499956</v>
+        <v>1.026274286210725</v>
       </c>
       <c r="M24">
-        <v>1.027150608794545</v>
+        <v>1.027120815326322</v>
       </c>
       <c r="N24">
-        <v>1.012840604850147</v>
+        <v>1.01440508637409</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035502487050888</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035230942576798</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021448238148701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00574315599507</v>
+        <v>1.005460167280721</v>
       </c>
       <c r="D25">
-        <v>1.025053685875521</v>
+        <v>1.024321749049917</v>
       </c>
       <c r="E25">
-        <v>1.017987690164188</v>
+        <v>1.017742738240405</v>
       </c>
       <c r="F25">
-        <v>1.019966315666231</v>
+        <v>1.01970685476766</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048619932447244</v>
+        <v>1.048271419668936</v>
       </c>
       <c r="J25">
-        <v>1.030078773898643</v>
+        <v>1.029805161976845</v>
       </c>
       <c r="K25">
-        <v>1.037275137810015</v>
+        <v>1.036553879229222</v>
       </c>
       <c r="L25">
-        <v>1.030313043288743</v>
+        <v>1.030071726122725</v>
       </c>
       <c r="M25">
-        <v>1.032262389956554</v>
+        <v>1.032006760223233</v>
       </c>
       <c r="N25">
-        <v>1.013931733359827</v>
+        <v>1.015161553849806</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037475373548679</v>
+        <v>1.036978941783222</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021943703573845</v>
       </c>
     </row>
   </sheetData>
